--- a/Project/Data/Water/Cantons/BE/BE 2012.xlsx
+++ b/Project/Data/Water/Cantons/BE/BE 2012.xlsx
@@ -21,32 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="77">
-  <si>
-    <t>mation</t>
-  </si>
-  <si>
-    <t>pompes)</t>
-  </si>
-  <si>
-    <t>Hiver</t>
-  </si>
-  <si>
-    <t>Eté</t>
-  </si>
-  <si>
-    <t>Année</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>(m3/s)</t>
   </si>
   <si>
-    <t>(MW)</t>
-  </si>
-  <si>
-    <t>(GWh)</t>
-  </si>
-  <si>
     <t>Hagerhüsli</t>
   </si>
   <si>
@@ -252,6 +231,36 @@
   </si>
   <si>
     <t>Schattenhalb 3</t>
+  </si>
+  <si>
+    <t>idx</t>
+  </si>
+  <si>
+    <t>idx2</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Date Start</t>
+  </si>
+  <si>
+    <t>Date End</t>
+  </si>
+  <si>
+    <t>(MW1)</t>
+  </si>
+  <si>
+    <t>(MW2)</t>
+  </si>
+  <si>
+    <t>(GWh) Winter</t>
+  </si>
+  <si>
+    <t>(GWh) Summer</t>
+  </si>
+  <si>
+    <t>(GWh) Year</t>
   </si>
 </sst>
 </file>
@@ -314,11 +323,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -660,63 +670,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M179"/>
+  <dimension ref="A1:M178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:K58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="E1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
+      <c r="B2" s="2">
+        <v>207000</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1854</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2002</v>
+      </c>
+      <c r="F2" s="3">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.48</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.3</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="K2" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>207000</v>
+        <v>207100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="E3" s="2">
         <v>2002</v>
@@ -725,1642 +768,1642 @@
         <v>12</v>
       </c>
       <c r="G3" s="3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H3" s="3">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="I3" s="3">
-        <v>1.3</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J3" s="3">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K3" s="3">
-        <v>2.5</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>207100</v>
+        <v>206750</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2">
-        <v>1855</v>
+        <v>1869</v>
       </c>
       <c r="E4" s="2">
-        <v>2002</v>
+        <v>2005</v>
       </c>
       <c r="F4" s="3">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="G4" s="3">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="H4" s="3">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="I4" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="J4" s="3">
-        <v>1.1000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="K4" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>206750</v>
+        <v>206900</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>1869</v>
+        <v>1876</v>
       </c>
       <c r="E5" s="2">
-        <v>2005</v>
+        <v>1998</v>
       </c>
       <c r="F5" s="3">
-        <v>7.5</v>
+        <v>6.6</v>
       </c>
       <c r="G5" s="3">
-        <v>0.35</v>
+        <v>3.25</v>
       </c>
       <c r="H5" s="3">
-        <v>0.33</v>
+        <v>2.75</v>
       </c>
       <c r="I5" s="3">
-        <v>0.85</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="J5" s="3">
-        <v>0.7</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="K5" s="3">
-        <v>1.55</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>206600</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1883</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1972</v>
+      </c>
+      <c r="F6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>206900</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1876</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1998</v>
-      </c>
-      <c r="F6" s="3">
-        <v>6.6</v>
-      </c>
       <c r="G6" s="3">
-        <v>3.25</v>
+        <v>1.48</v>
       </c>
       <c r="H6" s="3">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="I6" s="3">
-        <v>9.4499999999999993</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="J6" s="3">
-        <v>4.6500000000000004</v>
+        <v>3</v>
       </c>
       <c r="K6" s="3">
-        <v>14.1</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>206600</v>
+        <v>201500</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D7" s="2">
-        <v>1883</v>
+        <v>1889</v>
       </c>
       <c r="E7" s="2">
-        <v>1972</v>
+        <v>1946</v>
       </c>
       <c r="F7" s="3">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="G7" s="3">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>1.3</v>
+        <v>0.93</v>
       </c>
       <c r="I7" s="3">
-        <v>4.0999999999999996</v>
+        <v>2.1</v>
       </c>
       <c r="J7" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K7" s="3">
-        <v>7.1</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>201500</v>
+        <v>207300</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D8" s="2">
         <v>1889</v>
       </c>
       <c r="E8" s="2">
-        <v>1946</v>
+        <v>1995</v>
       </c>
       <c r="F8" s="3">
-        <v>0.6</v>
+        <v>12</v>
       </c>
       <c r="G8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="I8" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
-        <v>0.93</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2.1</v>
-      </c>
       <c r="J8" s="3">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="K8" s="3">
-        <v>5.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>207300</v>
+        <v>203300</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D9" s="2">
-        <v>1889</v>
+        <v>1891</v>
       </c>
       <c r="E9" s="2">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="F9" s="3">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3">
-        <v>0.5</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="H9" s="3">
-        <v>0.5</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="I9" s="3">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="J9" s="3">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="K9" s="3">
-        <v>2.6</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>203300</v>
+        <v>206700</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>1891</v>
+        <v>1893</v>
       </c>
       <c r="E10" s="2">
-        <v>1986</v>
+        <v>1924</v>
       </c>
       <c r="F10" s="3">
-        <v>40</v>
+        <v>2.8</v>
       </c>
       <c r="G10" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H10" s="3">
-        <v>1.1599999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="I10" s="3">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="J10" s="3">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="K10" s="3">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>206700</v>
+        <v>207200</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D11" s="2">
         <v>1893</v>
       </c>
       <c r="E11" s="2">
-        <v>1924</v>
+        <v>1949</v>
       </c>
       <c r="F11" s="3">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="G11" s="3">
-        <v>0.3</v>
+        <v>0.38</v>
       </c>
       <c r="H11" s="3">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="I11" s="3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J11" s="3">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="K11" s="3">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>207200</v>
+        <v>202200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="E12" s="2">
-        <v>1949</v>
+        <v>1932</v>
       </c>
       <c r="F12" s="3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3">
-        <v>0.38</v>
+        <v>0.82</v>
       </c>
       <c r="H12" s="3">
-        <v>0.35</v>
+        <v>0.8</v>
       </c>
       <c r="I12" s="3">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="J12" s="3">
-        <v>0.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="K12" s="3">
-        <v>1.8</v>
+        <v>5.0999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>202200</v>
+        <v>109800</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="E13" s="2">
-        <v>1932</v>
+        <v>1979</v>
       </c>
       <c r="F13" s="3">
-        <v>30</v>
+        <v>0.93</v>
       </c>
       <c r="G13" s="3">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
       <c r="H13" s="3">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="I13" s="3">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="J13" s="3">
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
       <c r="K13" s="3">
-        <v>5.0999999999999996</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
-        <v>109800</v>
+        <v>206800</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="E14" s="2">
-        <v>1979</v>
+        <v>2006</v>
       </c>
       <c r="F14" s="3">
-        <v>0.93</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3">
-        <v>0.92</v>
+        <v>0.32</v>
       </c>
       <c r="H14" s="3">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="I14" s="3">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3">
-        <v>5.3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2">
-        <v>206800</v>
+        <v>202500</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D15" s="2">
-        <v>1896</v>
+        <v>1899</v>
       </c>
       <c r="E15" s="2">
-        <v>2006</v>
+        <v>1986</v>
       </c>
       <c r="F15" s="3">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="G15" s="3">
-        <v>0.32</v>
+        <v>18.66</v>
       </c>
       <c r="H15" s="3">
-        <v>0.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="I15" s="3">
-        <v>1</v>
+        <v>42.9</v>
       </c>
       <c r="J15" s="3">
-        <v>1</v>
+        <v>61.74</v>
       </c>
       <c r="K15" s="3">
-        <v>2</v>
+        <v>104.64</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2">
-        <v>202500</v>
+        <v>205100</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D16" s="2">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="E16" s="2">
-        <v>1986</v>
+        <v>1954</v>
       </c>
       <c r="F16" s="3">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="G16" s="3">
-        <v>18.66</v>
+        <v>12.7</v>
       </c>
       <c r="H16" s="3">
-        <v>18.399999999999999</v>
+        <v>11.9</v>
       </c>
       <c r="I16" s="3">
-        <v>42.9</v>
+        <v>32.08</v>
       </c>
       <c r="J16" s="3">
-        <v>61.74</v>
+        <v>48.11</v>
       </c>
       <c r="K16" s="3">
-        <v>104.64</v>
+        <v>80.19</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2">
-        <v>205100</v>
+        <v>203100</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="E17" s="2">
-        <v>1954</v>
+        <v>1937</v>
       </c>
       <c r="F17" s="3">
-        <v>175</v>
+        <v>6</v>
       </c>
       <c r="G17" s="3">
-        <v>12.7</v>
+        <v>0.44</v>
       </c>
       <c r="H17" s="3">
-        <v>11.9</v>
+        <v>0.35</v>
       </c>
       <c r="I17" s="3">
-        <v>32.08</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J17" s="3">
-        <v>48.11</v>
+        <v>0.9</v>
       </c>
       <c r="K17" s="3">
-        <v>80.19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2">
-        <v>203100</v>
+        <v>202300</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2">
-        <v>1901</v>
+        <v>1903</v>
       </c>
       <c r="E18" s="2">
-        <v>1937</v>
+        <v>1958</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="G18" s="3">
-        <v>0.44</v>
+        <v>1.5</v>
       </c>
       <c r="H18" s="3">
-        <v>0.35</v>
+        <v>0.95</v>
       </c>
       <c r="I18" s="3">
-        <v>1.1000000000000001</v>
+        <v>3.4</v>
       </c>
       <c r="J18" s="3">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="K18" s="3">
-        <v>2</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2">
-        <v>202300</v>
+        <v>202450</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
         <v>1903</v>
       </c>
       <c r="E19" s="2">
-        <v>1958</v>
+        <v>1989</v>
       </c>
       <c r="F19" s="3">
-        <v>0.6</v>
+        <v>0.15</v>
       </c>
       <c r="G19" s="3">
-        <v>1.5</v>
+        <v>0.35</v>
       </c>
       <c r="H19" s="3">
-        <v>0.95</v>
+        <v>0.36</v>
       </c>
       <c r="I19" s="3">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="J19" s="3">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="K19" s="3">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2">
-        <v>202450</v>
+        <v>202100</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2">
-        <v>1903</v>
+        <v>1905</v>
       </c>
       <c r="E20" s="2">
-        <v>1989</v>
+        <v>1979</v>
       </c>
       <c r="F20" s="3">
-        <v>0.15</v>
+        <v>2</v>
       </c>
       <c r="G20" s="3">
-        <v>0.35</v>
+        <v>4.3</v>
       </c>
       <c r="H20" s="3">
-        <v>0.36</v>
+        <v>4.3</v>
       </c>
       <c r="I20" s="3">
-        <v>0.4</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="J20" s="3">
-        <v>1</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="K20" s="3">
-        <v>1.4</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2">
-        <v>202100</v>
+        <v>201700</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
-        <v>1905</v>
+        <v>1907</v>
       </c>
       <c r="E21" s="2">
-        <v>1979</v>
+        <v>1926</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="G21" s="3">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H21" s="3">
-        <v>4.3</v>
-      </c>
-      <c r="I21" s="3">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="J21" s="3">
-        <v>16.600000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="K21" s="3">
-        <v>21.7</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>201700</v>
+        <v>202000</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="E22" s="2">
-        <v>1926</v>
+        <v>2011</v>
       </c>
       <c r="F22" s="3">
-        <v>2.1</v>
+        <v>8.5</v>
       </c>
       <c r="G22" s="3">
-        <v>4.5</v>
+        <v>11.7</v>
       </c>
       <c r="H22" s="3">
-        <v>3.9</v>
+        <v>11.5</v>
+      </c>
+      <c r="I22" s="3">
+        <v>12</v>
       </c>
       <c r="J22" s="3">
-        <v>4.8</v>
+        <v>43</v>
       </c>
       <c r="K22" s="3">
-        <v>4.8</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="2">
-        <v>202000</v>
+        <v>203400</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="E23" s="2">
-        <v>2011</v>
+        <v>1989</v>
       </c>
       <c r="F23" s="3">
-        <v>8.5</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="H23" s="3">
         <v>11.5</v>
       </c>
       <c r="I23" s="3">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J23" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23" s="3">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="2">
-        <v>203400</v>
+        <v>202400</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="E24" s="2">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
+        <v>7.3</v>
       </c>
       <c r="G24" s="3">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="H24" s="3">
-        <v>11.5</v>
+        <v>18.8</v>
       </c>
       <c r="I24" s="3">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="J24" s="3">
-        <v>45</v>
+        <v>71.25</v>
       </c>
       <c r="K24" s="3">
-        <v>73</v>
+        <v>98.95</v>
       </c>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2">
-        <v>202400</v>
+        <v>205000</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2">
-        <v>1911</v>
+        <v>1913</v>
       </c>
       <c r="E25" s="2">
-        <v>1991</v>
+        <v>1980</v>
       </c>
       <c r="F25" s="3">
-        <v>7.3</v>
+        <v>45</v>
       </c>
       <c r="G25" s="3">
-        <v>19</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="H25" s="3">
-        <v>18.8</v>
+        <v>8.1</v>
       </c>
       <c r="I25" s="3">
-        <v>27.7</v>
+        <v>19.2</v>
       </c>
       <c r="J25" s="3">
-        <v>71.25</v>
+        <v>30.05</v>
       </c>
       <c r="K25" s="3">
-        <v>98.95</v>
+        <v>49.25</v>
       </c>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2">
-        <v>205000</v>
+        <v>203000</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2">
-        <v>1913</v>
+        <v>1917</v>
       </c>
       <c r="E26" s="2">
-        <v>1980</v>
+        <v>1994</v>
       </c>
       <c r="F26" s="3">
-        <v>45</v>
+        <v>49.65</v>
       </c>
       <c r="G26" s="3">
-        <v>8.3000000000000007</v>
+        <v>2.83</v>
       </c>
       <c r="H26" s="3">
-        <v>8.1</v>
+        <v>2.8</v>
       </c>
       <c r="I26" s="3">
-        <v>19.2</v>
+        <v>2.8</v>
       </c>
       <c r="J26" s="3">
-        <v>30.05</v>
+        <v>5.6</v>
       </c>
       <c r="K26" s="3">
-        <v>49.25</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" s="2">
-        <v>203000</v>
+        <v>203200</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D27" s="2">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="E27" s="2">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="F27" s="3">
-        <v>49.65</v>
+        <v>0.1</v>
       </c>
       <c r="G27" s="3">
-        <v>2.83</v>
+        <v>0.64</v>
       </c>
       <c r="H27" s="3">
-        <v>2.8</v>
+        <v>0.64</v>
       </c>
       <c r="I27" s="3">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="J27" s="3">
-        <v>5.6</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K27" s="3">
-        <v>8.4</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2">
-        <v>203200</v>
+        <v>203500</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
-        <v>1918</v>
+        <v>1920</v>
       </c>
       <c r="E28" s="2">
-        <v>1990</v>
+        <v>1965</v>
       </c>
       <c r="F28" s="3">
-        <v>0.1</v>
+        <v>291</v>
       </c>
       <c r="G28" s="3">
-        <v>0.64</v>
+        <v>44.59</v>
       </c>
       <c r="H28" s="3">
-        <v>0.64</v>
+        <v>40</v>
       </c>
       <c r="I28" s="3">
-        <v>1.2</v>
+        <v>52.75</v>
       </c>
       <c r="J28" s="3">
-        <v>2.2000000000000002</v>
+        <v>107.05</v>
       </c>
       <c r="K28" s="3">
-        <v>3.4</v>
+        <v>159.80000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" s="2">
-        <v>203500</v>
+        <v>208000</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="E29" s="2">
-        <v>1965</v>
+        <v>1979</v>
       </c>
       <c r="F29" s="3">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="G29" s="3">
-        <v>44.59</v>
+        <v>7.4</v>
       </c>
       <c r="H29" s="3">
-        <v>40</v>
+        <v>5.5</v>
       </c>
       <c r="I29" s="3">
-        <v>52.75</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="J29" s="3">
-        <v>107.05</v>
+        <v>20.39</v>
       </c>
       <c r="K29" s="3">
-        <v>159.80000000000001</v>
+        <v>36.979999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2">
-        <v>208000</v>
+        <v>200400</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D30" s="2">
-        <v>1923</v>
-      </c>
-      <c r="E30" s="2">
-        <v>1979</v>
+        <v>1932</v>
       </c>
       <c r="F30" s="3">
-        <v>200</v>
+        <v>20.3</v>
       </c>
       <c r="G30" s="3">
-        <v>7.4</v>
+        <v>100</v>
       </c>
       <c r="H30" s="3">
-        <v>5.5</v>
+        <v>93</v>
       </c>
       <c r="I30" s="3">
-        <v>16.600000000000001</v>
+        <v>13</v>
       </c>
       <c r="J30" s="3">
-        <v>20.39</v>
+        <v>38</v>
       </c>
       <c r="K30" s="3">
-        <v>36.979999999999997</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2">
-        <v>200400</v>
+        <v>202425</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
-        <v>1932</v>
+        <v>1937</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2011</v>
       </c>
       <c r="F31" s="3">
-        <v>20.3</v>
+        <v>1.35</v>
       </c>
       <c r="G31" s="3">
-        <v>100</v>
+        <v>0.6</v>
       </c>
       <c r="H31" s="3">
-        <v>93</v>
+        <v>0.6</v>
       </c>
       <c r="I31" s="3">
-        <v>13</v>
+        <v>0.3</v>
       </c>
       <c r="J31" s="3">
-        <v>38</v>
+        <v>1.7</v>
       </c>
       <c r="K31" s="3">
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>202425</v>
+        <v>200800</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
-        <v>1937</v>
+        <v>1943</v>
       </c>
       <c r="E32" s="2">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="F32" s="3">
-        <v>1.35</v>
+        <v>46.5</v>
       </c>
       <c r="G32" s="3">
-        <v>0.6</v>
+        <v>239.5</v>
       </c>
       <c r="H32" s="3">
-        <v>0.6</v>
+        <v>239.5</v>
       </c>
       <c r="I32" s="3">
-        <v>0.3</v>
+        <v>278.60000000000002</v>
       </c>
       <c r="J32" s="3">
-        <v>1.7</v>
+        <v>505.5</v>
       </c>
       <c r="K32" s="3">
-        <v>2</v>
+        <v>784.1</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="A33" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2">
-        <v>200800</v>
+        <v>202600</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="E33" s="2">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="F33" s="3">
-        <v>46.5</v>
+        <v>0.18</v>
       </c>
       <c r="G33" s="3">
-        <v>239.5</v>
+        <v>1.3</v>
       </c>
       <c r="H33" s="3">
-        <v>239.5</v>
+        <v>1.3</v>
       </c>
       <c r="I33" s="3">
-        <v>278.60000000000002</v>
+        <v>2</v>
       </c>
       <c r="J33" s="3">
-        <v>505.5</v>
+        <v>1.64</v>
       </c>
       <c r="K33" s="3">
-        <v>784.1</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2">
-        <v>202600</v>
+        <v>203700</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="E34" s="2">
-        <v>1996</v>
+        <v>2004</v>
       </c>
       <c r="F34" s="3">
-        <v>0.18</v>
+        <v>1.33</v>
       </c>
       <c r="G34" s="3">
-        <v>1.3</v>
+        <v>0.44</v>
       </c>
       <c r="H34" s="3">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="I34" s="3">
-        <v>2</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="J34" s="3">
-        <v>1.64</v>
+        <v>1.2</v>
       </c>
       <c r="K34" s="3">
-        <v>3.64</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2">
-        <v>203700</v>
+        <v>201800</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D35" s="2">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="E35" s="2">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F35" s="3">
-        <v>1.33</v>
+        <v>0.3</v>
       </c>
       <c r="G35" s="3">
-        <v>0.44</v>
+        <v>0.9</v>
       </c>
       <c r="H35" s="3">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="I35" s="3">
-        <v>0.57999999999999996</v>
+        <v>1.5</v>
       </c>
       <c r="J35" s="3">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="K35" s="3">
-        <v>1.78</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="A36" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2">
-        <v>201800</v>
+        <v>201400</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
-        <v>1949</v>
-      </c>
-      <c r="E36" s="2">
-        <v>2005</v>
+        <v>1950</v>
       </c>
       <c r="F36" s="3">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="G36" s="3">
-        <v>0.9</v>
+        <v>1.65</v>
       </c>
       <c r="H36" s="3">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="I36" s="3">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="J36" s="3">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="K36" s="3">
-        <v>4.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2">
-        <v>201400</v>
+        <v>200500</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
         <v>1950</v>
       </c>
+      <c r="E37" s="2">
+        <v>1958</v>
+      </c>
       <c r="F37" s="3">
-        <v>0.36</v>
+        <v>32</v>
       </c>
       <c r="G37" s="3">
-        <v>1.65</v>
+        <v>136</v>
       </c>
       <c r="H37" s="3">
-        <v>1.5</v>
+        <v>113</v>
       </c>
       <c r="I37" s="3">
-        <v>2.5</v>
+        <v>112</v>
       </c>
       <c r="J37" s="3">
-        <v>5.5</v>
+        <v>258</v>
       </c>
       <c r="K37" s="3">
-        <v>8</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2">
-        <v>200500</v>
+        <v>200200</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2">
-        <v>1950</v>
+        <v>1954</v>
       </c>
       <c r="E38" s="2">
-        <v>1958</v>
+        <v>2006</v>
       </c>
       <c r="F38" s="3">
-        <v>32</v>
+        <v>8.1</v>
       </c>
       <c r="G38" s="3">
-        <v>136</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="H38" s="3">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="I38" s="3">
-        <v>112</v>
+        <v>26.3</v>
       </c>
       <c r="J38" s="3">
-        <v>258</v>
+        <v>21.9</v>
       </c>
       <c r="K38" s="3">
-        <v>370</v>
+        <v>48.2</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2">
-        <v>200200</v>
+        <v>508700</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D39" s="2">
-        <v>1954</v>
-      </c>
-      <c r="E39" s="2">
-        <v>2006</v>
+        <v>1957</v>
       </c>
       <c r="F39" s="3">
-        <v>8.1</v>
+        <v>1.75</v>
       </c>
       <c r="G39" s="3">
-        <v>35.299999999999997</v>
+        <v>3.39</v>
       </c>
       <c r="H39" s="3">
-        <v>34</v>
+        <v>3.27</v>
       </c>
       <c r="I39" s="3">
-        <v>26.3</v>
+        <v>5.9</v>
       </c>
       <c r="J39" s="3">
-        <v>21.9</v>
+        <v>3.64</v>
       </c>
       <c r="K39" s="3">
-        <v>48.2</v>
+        <v>9.5500000000000007</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="A40" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2">
-        <v>508700</v>
+        <v>202700</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D40" s="2">
-        <v>1957</v>
+        <v>1959</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2005</v>
       </c>
       <c r="F40" s="3">
-        <v>1.75</v>
+        <v>6.4</v>
       </c>
       <c r="G40" s="3">
-        <v>3.39</v>
+        <v>18</v>
       </c>
       <c r="H40" s="3">
-        <v>3.27</v>
+        <v>18</v>
       </c>
       <c r="I40" s="3">
-        <v>5.9</v>
+        <v>12.1</v>
       </c>
       <c r="J40" s="3">
-        <v>3.64</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="K40" s="3">
-        <v>9.5500000000000007</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" s="2">
-        <v>202700</v>
+        <v>201900</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2">
-        <v>1959</v>
-      </c>
-      <c r="E41" s="2">
-        <v>2005</v>
+        <v>1960</v>
       </c>
       <c r="F41" s="3">
-        <v>6.4</v>
+        <v>0.4</v>
       </c>
       <c r="G41" s="3">
-        <v>18</v>
+        <v>1.4</v>
       </c>
       <c r="H41" s="3">
-        <v>18</v>
+        <v>1.4</v>
       </c>
       <c r="I41" s="3">
-        <v>12.1</v>
+        <v>1.5</v>
       </c>
       <c r="J41" s="3">
-        <v>40.700000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="K41" s="3">
-        <v>52.8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2">
-        <v>201900</v>
+        <v>200900</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="F42" s="3">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="G42" s="3">
-        <v>1.4</v>
+        <v>10.3</v>
       </c>
       <c r="H42" s="3">
-        <v>1.4</v>
+        <v>9.85</v>
       </c>
       <c r="I42" s="3">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="J42" s="3">
-        <v>4.5</v>
+        <v>15.1</v>
       </c>
       <c r="K42" s="3">
-        <v>6</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2">
-        <v>200900</v>
+        <v>201000</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D43" s="2">
         <v>1961</v>
       </c>
       <c r="F43" s="3">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="G43" s="3">
-        <v>10.3</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H43" s="3">
-        <v>9.85</v>
+        <v>4.5</v>
       </c>
       <c r="I43" s="3">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="J43" s="3">
-        <v>15.1</v>
+        <v>9.5</v>
       </c>
       <c r="K43" s="3">
-        <v>18.3</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="2">
-        <v>201000</v>
+        <v>202900</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="F44" s="3">
-        <v>2.1</v>
+        <v>125</v>
       </c>
       <c r="G44" s="3">
-        <v>4.4000000000000004</v>
+        <v>6.32</v>
       </c>
       <c r="H44" s="3">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="I44" s="3">
-        <v>2.6</v>
+        <v>10.84</v>
       </c>
       <c r="J44" s="3">
-        <v>9.5</v>
+        <v>21.2</v>
       </c>
       <c r="K44" s="3">
-        <v>12.1</v>
+        <v>32.04</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="2">
-        <v>202900</v>
+        <v>202800</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D45" s="2">
         <v>1962</v>
       </c>
+      <c r="E45" s="2">
+        <v>2000</v>
+      </c>
       <c r="F45" s="3">
-        <v>125</v>
+        <v>22</v>
       </c>
       <c r="G45" s="3">
-        <v>6.32</v>
+        <v>9</v>
       </c>
       <c r="H45" s="3">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="I45" s="3">
-        <v>10.84</v>
+        <v>13.7</v>
       </c>
       <c r="J45" s="3">
-        <v>21.2</v>
+        <v>31.8</v>
       </c>
       <c r="K45" s="3">
-        <v>32.04</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="46" spans="1:11">
       <c r="A46" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2">
-        <v>202800</v>
+        <v>204800</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E46" s="2">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="F46" s="3">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="G46" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H46" s="3">
-        <v>9</v>
+        <v>14.4</v>
       </c>
       <c r="I46" s="3">
-        <v>13.7</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="J46" s="3">
-        <v>31.8</v>
+        <v>47.9</v>
       </c>
       <c r="K46" s="3">
-        <v>45.5</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="47" spans="1:11">
       <c r="A47" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="2">
-        <v>204800</v>
+        <v>204700</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D47" s="2">
-        <v>1963</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1992</v>
+        <v>1964</v>
       </c>
       <c r="F47" s="3">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="G47" s="3">
-        <v>15</v>
+        <v>2.84</v>
       </c>
       <c r="H47" s="3">
-        <v>14.4</v>
+        <v>2.08</v>
       </c>
       <c r="I47" s="3">
-        <v>33.299999999999997</v>
+        <v>2.4</v>
       </c>
       <c r="J47" s="3">
-        <v>47.9</v>
+        <v>3.16</v>
       </c>
       <c r="K47" s="3">
-        <v>81.2</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="A48" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="2">
-        <v>204700</v>
+        <v>203600</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D48" s="2">
-        <v>1964</v>
+        <v>1966</v>
       </c>
       <c r="F48" s="3">
-        <v>135</v>
+        <v>2.6</v>
       </c>
       <c r="G48" s="3">
-        <v>2.84</v>
+        <v>14.23</v>
       </c>
       <c r="H48" s="3">
-        <v>2.08</v>
+        <v>13.07</v>
       </c>
       <c r="I48" s="3">
-        <v>2.4</v>
+        <v>5.37</v>
       </c>
       <c r="J48" s="3">
-        <v>3.16</v>
+        <v>22.29</v>
       </c>
       <c r="K48" s="3">
-        <v>5.56</v>
+        <v>27.66</v>
       </c>
     </row>
     <row r="49" spans="1:11">
       <c r="A49" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" s="2">
-        <v>203600</v>
+        <v>201200</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D49" s="2">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="F49" s="3">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="G49" s="3">
-        <v>14.23</v>
+        <v>6</v>
       </c>
       <c r="H49" s="3">
-        <v>13.07</v>
+        <v>6</v>
       </c>
       <c r="I49" s="3">
-        <v>5.37</v>
+        <v>5.4</v>
       </c>
       <c r="J49" s="3">
-        <v>22.29</v>
+        <v>15.8</v>
       </c>
       <c r="K49" s="3">
-        <v>27.66</v>
+        <v>21.2</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" s="2">
-        <v>201200</v>
+        <v>201100</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D50" s="2">
         <v>1967</v>
       </c>
+      <c r="E50" s="2">
+        <v>1974</v>
+      </c>
       <c r="F50" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="G50" s="3">
-        <v>6</v>
+        <v>85.4</v>
       </c>
       <c r="H50" s="3">
-        <v>6</v>
+        <v>79</v>
       </c>
       <c r="I50" s="3">
-        <v>5.4</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="J50" s="3">
-        <v>15.8</v>
+        <v>216.6</v>
       </c>
       <c r="K50" s="3">
-        <v>21.2</v>
+        <v>254.9</v>
       </c>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" s="2">
-        <v>201100</v>
+        <v>201300</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D51" s="2">
         <v>1967</v>
@@ -2369,569 +2412,566 @@
         <v>1974</v>
       </c>
       <c r="F51" s="3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="G51" s="3">
-        <v>85.4</v>
+        <v>62</v>
       </c>
       <c r="H51" s="3">
-        <v>79</v>
+        <v>52.5</v>
       </c>
       <c r="I51" s="3">
-        <v>38.299999999999997</v>
+        <v>29.6</v>
       </c>
       <c r="J51" s="3">
-        <v>216.6</v>
+        <v>140.5</v>
       </c>
       <c r="K51" s="3">
-        <v>254.9</v>
+        <v>170.1</v>
       </c>
     </row>
     <row r="52" spans="1:11">
       <c r="A52" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" s="2">
-        <v>201300</v>
+        <v>204900</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D52" s="2">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E52" s="2">
-        <v>1974</v>
+        <v>1994</v>
       </c>
       <c r="F52" s="3">
-        <v>29</v>
+        <v>170</v>
       </c>
       <c r="G52" s="3">
-        <v>62</v>
+        <v>15.2</v>
       </c>
       <c r="H52" s="3">
-        <v>52.5</v>
+        <v>14.6</v>
       </c>
       <c r="I52" s="3">
-        <v>29.6</v>
+        <v>36.020000000000003</v>
       </c>
       <c r="J52" s="3">
-        <v>140.5</v>
+        <v>54.03</v>
       </c>
       <c r="K52" s="3">
-        <v>170.1</v>
+        <v>90.05</v>
       </c>
     </row>
     <row r="53" spans="1:11">
       <c r="A53" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2">
-        <v>204900</v>
+        <v>207800</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D53" s="2">
-        <v>1968</v>
+        <v>1970</v>
       </c>
       <c r="E53" s="2">
-        <v>1994</v>
+        <v>2000</v>
       </c>
       <c r="F53" s="3">
-        <v>170</v>
+        <v>435</v>
       </c>
       <c r="G53" s="3">
-        <v>15.2</v>
+        <v>28.5</v>
       </c>
       <c r="H53" s="3">
-        <v>14.6</v>
+        <v>26.8</v>
       </c>
       <c r="I53" s="3">
-        <v>36.020000000000003</v>
+        <v>67.17</v>
       </c>
       <c r="J53" s="3">
-        <v>54.03</v>
+        <v>82.09</v>
       </c>
       <c r="K53" s="3">
-        <v>90.05</v>
+        <v>149.26</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2">
-        <v>207800</v>
+        <v>207700</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D54" s="2">
         <v>1970</v>
       </c>
       <c r="E54" s="2">
-        <v>2000</v>
+        <v>2009</v>
       </c>
       <c r="F54" s="3">
-        <v>435</v>
+        <v>350</v>
       </c>
       <c r="G54" s="3">
-        <v>28.5</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="H54" s="3">
-        <v>26.8</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="I54" s="3">
-        <v>67.17</v>
+        <v>24.64</v>
       </c>
       <c r="J54" s="3">
-        <v>82.09</v>
+        <v>31.08</v>
       </c>
       <c r="K54" s="3">
-        <v>149.26</v>
+        <v>55.71</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2">
-        <v>207700</v>
+        <v>200300</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D55" s="2">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="E55" s="2">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="F55" s="3">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="G55" s="3">
-        <v>8.8699999999999992</v>
+        <v>32.5</v>
       </c>
       <c r="H55" s="3">
-        <v>8.2200000000000006</v>
+        <v>32</v>
       </c>
       <c r="I55" s="3">
-        <v>24.64</v>
+        <v>22</v>
       </c>
       <c r="J55" s="3">
-        <v>31.08</v>
+        <v>34</v>
       </c>
       <c r="K55" s="3">
-        <v>55.71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2">
-        <v>200300</v>
+        <v>200600</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D56" s="2">
-        <v>1974</v>
-      </c>
-      <c r="E56" s="2">
-        <v>2007</v>
+        <v>1976</v>
       </c>
       <c r="F56" s="3">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G56" s="3">
-        <v>32.5</v>
+        <v>55</v>
       </c>
       <c r="H56" s="3">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="I56" s="3">
-        <v>22</v>
+        <v>27.2</v>
       </c>
       <c r="J56" s="3">
-        <v>34</v>
+        <v>28.2</v>
       </c>
       <c r="K56" s="3">
-        <v>56</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2">
-        <v>200600</v>
+        <v>200700</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D57" s="2">
         <v>1976</v>
       </c>
       <c r="F57" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G57" s="3">
-        <v>55</v>
+        <v>5.2</v>
       </c>
       <c r="H57" s="3">
-        <v>53</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I57" s="3">
-        <v>27.2</v>
+        <v>0.6</v>
       </c>
       <c r="J57" s="3">
-        <v>28.2</v>
+        <v>0.3</v>
       </c>
       <c r="K57" s="3">
-        <v>55.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2">
-        <v>200700</v>
+        <v>200100</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D58" s="2">
-        <v>1976</v>
+        <v>1981</v>
       </c>
       <c r="F58" s="3">
-        <v>10</v>
+        <v>92.8</v>
       </c>
       <c r="G58" s="3">
-        <v>5.2</v>
+        <v>348</v>
       </c>
       <c r="H58" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0.9</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>200100</v>
+        <v>206950</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D59" s="2">
-        <v>1981</v>
+        <v>1995</v>
       </c>
       <c r="F59" s="3">
-        <v>92.8</v>
+        <v>219.4</v>
       </c>
       <c r="G59" s="3">
-        <v>348</v>
+        <v>5.2</v>
       </c>
       <c r="H59" s="3">
-        <v>311</v>
+        <v>3.6</v>
+      </c>
+      <c r="I59" s="3">
+        <v>9.59</v>
+      </c>
+      <c r="J59" s="3">
+        <v>11.73</v>
+      </c>
+      <c r="K59" s="3">
+        <v>21.32</v>
       </c>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>206950</v>
+        <v>202475</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D60" s="2">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="F60" s="3">
-        <v>219.4</v>
+        <v>1.5</v>
       </c>
       <c r="G60" s="3">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H60" s="3">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="I60" s="3">
-        <v>9.59</v>
+        <v>1</v>
       </c>
       <c r="J60" s="3">
-        <v>11.73</v>
+        <v>1.5</v>
       </c>
       <c r="K60" s="3">
-        <v>21.32</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2">
-        <v>202475</v>
+        <v>202275</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D61" s="2">
         <v>1996</v>
       </c>
       <c r="F61" s="3">
-        <v>1.5</v>
+        <v>15</v>
       </c>
       <c r="G61" s="3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H61" s="3">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="I61" s="3">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="J61" s="3">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="K61" s="3">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2">
-        <v>202275</v>
+        <v>202350</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D62" s="2">
         <v>1996</v>
       </c>
       <c r="F62" s="3">
-        <v>15</v>
+        <v>1.2</v>
       </c>
       <c r="G62" s="3">
-        <v>0.3</v>
+        <v>1.03</v>
       </c>
       <c r="H62" s="3">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="I62" s="3">
-        <v>0.6</v>
+        <v>2.17</v>
       </c>
       <c r="J62" s="3">
-        <v>0.6</v>
+        <v>2.46</v>
       </c>
       <c r="K62" s="3">
-        <v>1.2</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="63" spans="1:11">
       <c r="A63" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2">
-        <v>202350</v>
+        <v>207900</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D63" s="2">
         <v>1996</v>
       </c>
       <c r="F63" s="3">
-        <v>1.2</v>
+        <v>220</v>
       </c>
       <c r="G63" s="3">
-        <v>1.03</v>
+        <v>10.82</v>
       </c>
       <c r="H63" s="3">
-        <v>1</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="I63" s="3">
-        <v>2.17</v>
+        <v>19.84</v>
       </c>
       <c r="J63" s="3">
-        <v>2.46</v>
+        <v>26.16</v>
       </c>
       <c r="K63" s="3">
-        <v>4.63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2">
-        <v>207900</v>
+        <v>203350</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D64" s="2">
-        <v>1996</v>
+        <v>1998</v>
       </c>
       <c r="F64" s="3">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="G64" s="3">
-        <v>10.82</v>
+        <v>0.44</v>
       </c>
       <c r="H64" s="3">
-        <v>9.3800000000000008</v>
+        <v>0.42</v>
       </c>
       <c r="I64" s="3">
-        <v>19.84</v>
+        <v>1.3</v>
       </c>
       <c r="J64" s="3">
-        <v>26.16</v>
+        <v>1.3</v>
       </c>
       <c r="K64" s="3">
-        <v>46</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2">
-        <v>203350</v>
+        <v>202150</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D65" s="2">
         <v>1998</v>
       </c>
       <c r="F65" s="3">
-        <v>16</v>
+        <v>0.25</v>
       </c>
       <c r="G65" s="3">
-        <v>0.44</v>
+        <v>0.8</v>
       </c>
       <c r="H65" s="3">
-        <v>0.42</v>
+        <v>0.74</v>
       </c>
       <c r="I65" s="3">
         <v>1.3</v>
       </c>
       <c r="J65" s="3">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="K65" s="3">
-        <v>2.6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="2">
-        <v>202150</v>
+        <v>202125</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D66" s="2">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="F66" s="3">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="G66" s="3">
-        <v>0.8</v>
+        <v>0.48</v>
       </c>
       <c r="H66" s="3">
-        <v>0.74</v>
+        <v>0.43</v>
       </c>
       <c r="I66" s="3">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="J66" s="3">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="K66" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="2">
-        <v>202125</v>
+        <v>206975</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D67" s="2">
         <v>1999</v>
       </c>
       <c r="F67" s="3">
-        <v>0.23</v>
+        <v>12</v>
       </c>
       <c r="G67" s="3">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
       <c r="H67" s="3">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="I67" s="3">
-        <v>0.6</v>
+        <v>0.94</v>
       </c>
       <c r="J67" s="3">
-        <v>1.4</v>
+        <v>0.86</v>
       </c>
       <c r="K67" s="3">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>206975</v>
+        <v>206550</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D68" s="2">
-        <v>1999</v>
+        <v>2005</v>
       </c>
       <c r="F68" s="3">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G68" s="3">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="H68" s="3">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I68" s="3">
-        <v>0.94</v>
+        <v>0.96</v>
       </c>
       <c r="J68" s="3">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="K68" s="3">
         <v>1.8</v>
@@ -2939,208 +2979,184 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="2">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B69" s="2">
-        <v>206550</v>
+        <v>202800</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="D69" s="2">
-        <v>2005</v>
+        <v>1962</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2000</v>
       </c>
       <c r="F69" s="3">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="G69" s="3">
-        <v>0.39</v>
+        <v>9</v>
       </c>
       <c r="H69" s="3">
-        <v>0.36</v>
+        <v>9</v>
       </c>
       <c r="I69" s="3">
-        <v>0.96</v>
+        <v>13.7</v>
       </c>
       <c r="J69" s="3">
-        <v>0.84</v>
+        <v>31.8</v>
       </c>
       <c r="K69" s="3">
-        <v>1.8</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B70" s="2">
-        <v>202800</v>
+        <v>204800</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D70" s="2">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E70" s="2">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="F70" s="3">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="G70" s="3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H70" s="3">
-        <v>9</v>
+        <v>14.4</v>
       </c>
       <c r="I70" s="3">
-        <v>13.7</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="J70" s="3">
-        <v>31.8</v>
+        <v>47.9</v>
       </c>
       <c r="K70" s="3">
-        <v>45.5</v>
+        <v>81.2</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B71" s="2">
-        <v>204800</v>
+        <v>204700</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D71" s="2">
-        <v>1963</v>
-      </c>
-      <c r="E71" s="2">
-        <v>1992</v>
+        <v>1964</v>
       </c>
       <c r="F71" s="3">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="G71" s="3">
-        <v>15</v>
+        <v>2.84</v>
       </c>
       <c r="H71" s="3">
-        <v>14.4</v>
+        <v>2.08</v>
       </c>
       <c r="I71" s="3">
-        <v>33.299999999999997</v>
+        <v>2.4</v>
       </c>
       <c r="J71" s="3">
-        <v>47.9</v>
+        <v>3.16</v>
       </c>
       <c r="K71" s="3">
-        <v>81.2</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="2">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B72" s="2">
-        <v>204700</v>
+        <v>202290</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="D72" s="2">
-        <v>1964</v>
+        <v>2009</v>
       </c>
       <c r="F72" s="3">
-        <v>135</v>
+        <v>0.8</v>
       </c>
       <c r="G72" s="3">
-        <v>2.84</v>
+        <v>2.1</v>
       </c>
       <c r="H72" s="3">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I72" s="3">
-        <v>2.4</v>
+        <v>1.73</v>
       </c>
       <c r="J72" s="3">
-        <v>3.16</v>
+        <v>8.76</v>
       </c>
       <c r="K72" s="3">
-        <v>5.56</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B73" s="2">
-        <v>202290</v>
+        <v>201750</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D73" s="2">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F73" s="3">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="G73" s="3">
-        <v>2.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="H73" s="3">
-        <v>2.1</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="I73" s="3">
-        <v>1.73</v>
+        <v>16.2</v>
       </c>
       <c r="J73" s="3">
-        <v>8.76</v>
+        <v>32.4</v>
       </c>
       <c r="K73" s="3">
-        <v>10.49</v>
+        <v>48.6</v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="2">
-        <v>69</v>
-      </c>
-      <c r="B74" s="2">
-        <v>201750</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="2">
-        <v>2010</v>
-      </c>
-      <c r="F74" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="G74" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="H74" s="3">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="I74" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="J74" s="3">
-        <v>32.4</v>
-      </c>
-      <c r="K74" s="3">
-        <v>48.6</v>
-      </c>
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="2"/>
+      <c r="I74" s="3"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="D75" s="1"/>
       <c r="E75" s="2"/>
-      <c r="I75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="2"/>
@@ -3322,12 +3338,8 @@
       <c r="M95" s="3"/>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="2"/>
-      <c r="H96" s="3"/>
-      <c r="J96" s="3"/>
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="1:13">
@@ -3659,10 +3671,6 @@
     <row r="178" spans="1:2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="1"/>
-      <c r="B179" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
